--- a/Descargas/R15_1º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
+++ b/Descargas/R15_1º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
@@ -301,7 +301,7 @@
         </is>
       </c>
       <c r="B10" s="65">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -311,7 +311,7 @@
         </is>
       </c>
       <c r="B11" s="65">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B49" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B60" s="65">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
